--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\PycharmProjects\fast-apiv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74573C2A-1FA5-44D9-828D-EDC9EB2CD6DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131C402-5B89-4149-A9C8-249ABF7B9594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>Date Fin</t>
   </si>
   <si>
-    <t>Fractionn.</t>
-  </si>
-  <si>
     <t>Contrat</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>JB345067</t>
+  </si>
+  <si>
+    <t>Fractionn</t>
   </si>
 </sst>
 </file>
@@ -1095,9 +1095,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1482,7 +1481,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1524,60 +1523,60 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45400.368055555555</v>
+        <v>45400</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45357</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45448</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45357</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45448</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
       <c r="N2">
         <v>-151.15</v>
@@ -1585,37 +1584,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45400.372916666667</v>
+        <v>45400</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45371</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45462</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45371</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45462</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
       <c r="N3">
         <v>-193.04</v>
@@ -1623,40 +1622,40 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45400.402083333334</v>
+        <v>45400</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45491</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45491</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
       </c>
       <c r="N4">
         <v>373.43</v>
@@ -1667,125 +1666,125 @@
         <v>45400.411805555559</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45765</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45765</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>3465.92</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45400.439583333333</v>
+        <v>45400</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45398</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45762</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45398</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45762</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>2875.88</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45400.463888888888</v>
+        <v>45400</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
       </c>
       <c r="N7">
         <v>410.5</v>
@@ -1793,40 +1792,40 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45400.470138888886</v>
+        <v>45400</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
       </c>
       <c r="N8">
         <v>410.5</v>
@@ -1834,40 +1833,40 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45400.494444444441</v>
+        <v>45400</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45491</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45491</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>53</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>54</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
       </c>
       <c r="N9">
         <v>412.84</v>
@@ -1875,40 +1874,40 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45400.496527777781</v>
+        <v>45400</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
       </c>
       <c r="N10">
         <v>17</v>
@@ -1916,40 +1915,40 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45400.511111111111</v>
+        <v>45400</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45404</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45404</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45494</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
       <c r="N11">
         <v>412.84</v>
@@ -1960,37 +1959,37 @@
         <v>45400.536111111112</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45430</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45430</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>64</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>65</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
       </c>
       <c r="N12">
         <v>280.48</v>
@@ -2001,37 +2000,37 @@
         <v>45400.537499999999</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>70</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>71</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
       </c>
       <c r="N13">
         <v>410.31</v>
@@ -2042,39 +2041,39 @@
         <v>45400.541666666664</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>76</v>
       </c>
-      <c r="M14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>1275.33</v>
       </c>
     </row>
@@ -2083,42 +2082,42 @@
         <v>45400.54583333333</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45765</v>
+      </c>
+      <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45765</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>81</v>
       </c>
-      <c r="M15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>2651.83</v>
       </c>
     </row>
@@ -2127,37 +2126,37 @@
         <v>45400.554861111108</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45582</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45582</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
         <v>85</v>
       </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>86</v>
-      </c>
-      <c r="M16" t="s">
-        <v>87</v>
       </c>
       <c r="N16">
         <v>806.19</v>
@@ -2168,37 +2167,37 @@
         <v>45400.5625</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>90</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>91</v>
-      </c>
-      <c r="M17" t="s">
-        <v>92</v>
       </c>
       <c r="N17">
         <v>410.14</v>
@@ -2209,40 +2208,40 @@
         <v>45400.569444444445</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45369</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45552</v>
+      </c>
+      <c r="H18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45369</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45552</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>97</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>98</v>
-      </c>
-      <c r="M18" t="s">
-        <v>99</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -2253,42 +2252,42 @@
         <v>45400.573611111111</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45398</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45762</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45398</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45762</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>102</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>103</v>
       </c>
-      <c r="M19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>3322.88</v>
       </c>
     </row>
@@ -2297,37 +2296,37 @@
         <v>45400.584722222222</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45491</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
         <v>106</v>
       </c>
-      <c r="E20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45491</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>107</v>
-      </c>
-      <c r="M20" t="s">
-        <v>108</v>
       </c>
       <c r="N20">
         <v>412.84</v>
@@ -2338,37 +2337,37 @@
         <v>45400.597916666666</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>111</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>112</v>
-      </c>
-      <c r="M21" t="s">
-        <v>113</v>
       </c>
       <c r="N21">
         <v>801.3</v>
@@ -2379,42 +2378,42 @@
         <v>45400.615972222222</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45492</v>
+      </c>
+      <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="E22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45402</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45492</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
         <v>116</v>
       </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>117</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>118</v>
       </c>
-      <c r="M22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>1284.43</v>
       </c>
     </row>
@@ -2423,37 +2422,37 @@
         <v>45400.651388888888</v>
       </c>
       <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>121</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45261</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45443</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45261</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45443</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>124</v>
-      </c>
-      <c r="M23" t="s">
-        <v>125</v>
       </c>
       <c r="N23">
         <v>155.35</v>
@@ -2464,37 +2463,37 @@
         <v>45400.673611111109</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45583</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
         <v>127</v>
       </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45583</v>
-      </c>
-      <c r="I24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>128</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>129</v>
-      </c>
-      <c r="M24" t="s">
-        <v>130</v>
       </c>
       <c r="N24">
         <v>775.41</v>
@@ -2505,39 +2504,39 @@
         <v>45400.677777777775</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45582</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" t="s">
         <v>132</v>
       </c>
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45582</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>133</v>
       </c>
-      <c r="M25" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>1483.11</v>
       </c>
     </row>
@@ -2546,40 +2545,40 @@
         <v>45400.681250000001</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45489</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
         <v>136</v>
       </c>
-      <c r="E26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45489</v>
-      </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>137</v>
-      </c>
-      <c r="M26" t="s">
-        <v>138</v>
       </c>
       <c r="N26">
         <v>755.74</v>
@@ -2590,42 +2589,42 @@
         <v>45400.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
         <v>139</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45765</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
         <v>140</v>
       </c>
-      <c r="E27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G27" s="2">
-        <v>45765</v>
-      </c>
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>141</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>142</v>
       </c>
-      <c r="M27" t="s">
-        <v>143</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>3424.92</v>
       </c>
     </row>
@@ -2634,37 +2633,37 @@
         <v>45400.711805555555</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45406</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45496</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
         <v>145</v>
       </c>
-      <c r="E28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="2">
-        <v>45406</v>
-      </c>
-      <c r="G28" s="2">
-        <v>45496</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>146</v>
-      </c>
-      <c r="M28" t="s">
-        <v>147</v>
       </c>
       <c r="N28">
         <v>412.84</v>
@@ -2675,40 +2674,40 @@
         <v>45400.722916666666</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
         <v>148</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45356</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45720</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s">
         <v>149</v>
       </c>
-      <c r="E29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="2">
-        <v>45356</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45720</v>
-      </c>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>150</v>
-      </c>
-      <c r="M29" t="s">
-        <v>151</v>
       </c>
       <c r="N29">
         <v>17</v>
@@ -2719,40 +2718,40 @@
         <v>45400.730555555558</v>
       </c>
       <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
         <v>152</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>153</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45341</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45706</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="2">
-        <v>45341</v>
-      </c>
-      <c r="G30" s="2">
-        <v>45706</v>
-      </c>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>155</v>
-      </c>
-      <c r="M30" t="s">
-        <v>156</v>
       </c>
       <c r="N30">
         <v>17</v>
@@ -2763,37 +2762,37 @@
         <v>45400.734722222223</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
         <v>157</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45400</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45490</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
         <v>158</v>
       </c>
-      <c r="E31" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45400</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45490</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>159</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>160</v>
-      </c>
-      <c r="M31" t="s">
-        <v>161</v>
       </c>
       <c r="N31">
         <v>409.4</v>
@@ -2804,40 +2803,40 @@
         <v>45400.75</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45401</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
         <v>163</v>
       </c>
-      <c r="E32" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45401</v>
-      </c>
-      <c r="G32" s="2">
-        <v>45491</v>
-      </c>
-      <c r="H32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>164</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>165</v>
-      </c>
-      <c r="M32" t="s">
-        <v>166</v>
       </c>
       <c r="N32">
         <v>769.91</v>
@@ -2848,6 +2847,6 @@
     <sortCondition ref="D32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>